--- a/statistics/HistoricalDistanceData/historical_distance/Q65049028-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q65049028-en.xlsx
@@ -31,21 +31,21 @@
     <t>uri</t>
   </si>
   <si>
+    <t>How Did the Dallas Courthouse Gunman Get Radicalized?</t>
+  </si>
+  <si>
     <t>Inspired by Dallas courthouse shooter, Air Force base circulates 'incel' warning signs</t>
   </si>
   <si>
-    <t>How Did the Dallas Courthouse Gunman Get Radicalized?</t>
-  </si>
-  <si>
     <t>Man charged with threatening to kill governor</t>
   </si>
   <si>
+    <t>2019-06-20T21:21:11UTC</t>
+  </si>
+  <si>
     <t>2019-06-22T20:50:00UTC</t>
   </si>
   <si>
-    <t>2019-06-20T21:21:11UTC</t>
-  </si>
-  <si>
     <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
@@ -55,10 +55,10 @@
     <t>day_2_to_30</t>
   </si>
   <si>
+    <t>https://www.texasmonthly.com/politics/dallas-courthouse-shooter-brian-clyde-radicalized/</t>
+  </si>
+  <si>
     <t>https://www.dallasnews.com/news/dallas/2019/06/22/air-force-base-prompted-dallas-courthouse-shooter-educates-personnel-recognizing-incel-warning-signs</t>
-  </si>
-  <si>
-    <t>https://www.texasmonthly.com/politics/dallas-courthouse-shooter-brian-clyde-radicalized/</t>
   </si>
   <si>
     <t>https://www.abqjournal.com/1433696/post-on-facebook-page-came-same-day-she-issued-emergency-orders.html</t>
@@ -463,7 +463,7 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -480,7 +480,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
